--- a/data/xeon.5315y.xlsx
+++ b/data/xeon.5315y.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/floh/Code/sgx-benchmark/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4747280-5C65-0042-BDE5-0EA2B49C20F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23119EEC-B038-6E42-BD08-EEDBE2EF6ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="9480" windowWidth="27640" windowHeight="16860" activeTab="5" xr2:uid="{CC5653A7-47EC-7741-A8FE-65C1DD72C94E}"/>
+    <workbookView xWindow="12140" yWindow="8320" windowWidth="27640" windowHeight="16860" activeTab="5" xr2:uid="{CC5653A7-47EC-7741-A8FE-65C1DD72C94E}"/>
   </bookViews>
   <sheets>
     <sheet name="1 MB" sheetId="3" r:id="rId1"/>
@@ -55468,9 +55468,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FD8A17-FDDA-D549-97FA-F8688488C3E4}">
-  <dimension ref="A1:C633"/>
+  <dimension ref="A1:C827"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -62439,6 +62439,2140 @@
         <v>12.27</v>
       </c>
     </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A634">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="B634">
+        <v>6.48</v>
+      </c>
+      <c r="C634">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>18.63</v>
+      </c>
+      <c r="B635">
+        <v>6.52</v>
+      </c>
+      <c r="C635">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A636">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="B636">
+        <v>6.36</v>
+      </c>
+      <c r="C636">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A637">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="B637">
+        <v>6.53</v>
+      </c>
+      <c r="C637">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A638">
+        <v>18.55</v>
+      </c>
+      <c r="B638">
+        <v>6.32</v>
+      </c>
+      <c r="C638">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A639">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B639">
+        <v>6.67</v>
+      </c>
+      <c r="C639">
+        <v>11.92</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A640">
+        <v>18.68</v>
+      </c>
+      <c r="B640">
+        <v>6.41</v>
+      </c>
+      <c r="C640">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A641">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="B641">
+        <v>6.45</v>
+      </c>
+      <c r="C641">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A642">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="B642">
+        <v>6.58</v>
+      </c>
+      <c r="C642">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A643">
+        <v>18.71</v>
+      </c>
+      <c r="B643">
+        <v>6.46</v>
+      </c>
+      <c r="C643">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A644">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="B644">
+        <v>6.51</v>
+      </c>
+      <c r="C644">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A645">
+        <v>18.84</v>
+      </c>
+      <c r="B645">
+        <v>6.68</v>
+      </c>
+      <c r="C645">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A646">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="B646">
+        <v>6.56</v>
+      </c>
+      <c r="C646">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A647">
+        <v>18.61</v>
+      </c>
+      <c r="B647">
+        <v>6.55</v>
+      </c>
+      <c r="C647">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A648">
+        <v>18.71</v>
+      </c>
+      <c r="B648">
+        <v>6.47</v>
+      </c>
+      <c r="C648">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A649">
+        <v>18.91</v>
+      </c>
+      <c r="B649">
+        <v>6.61</v>
+      </c>
+      <c r="C649">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A650">
+        <v>18.68</v>
+      </c>
+      <c r="B650">
+        <v>6.45</v>
+      </c>
+      <c r="C650">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A651">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="B651">
+        <v>6.45</v>
+      </c>
+      <c r="C651">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A652">
+        <v>18.77</v>
+      </c>
+      <c r="B652">
+        <v>6.49</v>
+      </c>
+      <c r="C652">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A653">
+        <v>18.78</v>
+      </c>
+      <c r="B653">
+        <v>6.45</v>
+      </c>
+      <c r="C653">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A654">
+        <v>18.61</v>
+      </c>
+      <c r="B654">
+        <v>6.42</v>
+      </c>
+      <c r="C654">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A655">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="B655">
+        <v>6.54</v>
+      </c>
+      <c r="C655">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A656">
+        <v>18.75</v>
+      </c>
+      <c r="B656">
+        <v>6.43</v>
+      </c>
+      <c r="C656">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A657">
+        <v>18.82</v>
+      </c>
+      <c r="B657">
+        <v>6.43</v>
+      </c>
+      <c r="C657">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A658">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="B658">
+        <v>6.51</v>
+      </c>
+      <c r="C658">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A659">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="B659">
+        <v>6.54</v>
+      </c>
+      <c r="C659">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A660">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="B660">
+        <v>6.44</v>
+      </c>
+      <c r="C660">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A661">
+        <v>18.78</v>
+      </c>
+      <c r="B661">
+        <v>6.34</v>
+      </c>
+      <c r="C661">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A662">
+        <v>18.73</v>
+      </c>
+      <c r="B662">
+        <v>6.55</v>
+      </c>
+      <c r="C662">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A663">
+        <v>18.78</v>
+      </c>
+      <c r="B663">
+        <v>6.55</v>
+      </c>
+      <c r="C663">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A664">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="B664">
+        <v>6.42</v>
+      </c>
+      <c r="C664">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A665">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="B665">
+        <v>6.46</v>
+      </c>
+      <c r="C665">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A666">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="B666">
+        <v>6.44</v>
+      </c>
+      <c r="C666">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A667">
+        <v>18.64</v>
+      </c>
+      <c r="B667">
+        <v>6.43</v>
+      </c>
+      <c r="C667">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A668">
+        <v>18.82</v>
+      </c>
+      <c r="B668">
+        <v>6.45</v>
+      </c>
+      <c r="C668">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A669">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="B669">
+        <v>6.52</v>
+      </c>
+      <c r="C669">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A670">
+        <v>18.7</v>
+      </c>
+      <c r="B670">
+        <v>6.45</v>
+      </c>
+      <c r="C670">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A671">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="B671">
+        <v>6.47</v>
+      </c>
+      <c r="C671">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A672">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="B672">
+        <v>6.5</v>
+      </c>
+      <c r="C672">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A673">
+        <v>18.66</v>
+      </c>
+      <c r="B673">
+        <v>6.42</v>
+      </c>
+      <c r="C673">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A674">
+        <v>18.75</v>
+      </c>
+      <c r="B674">
+        <v>6.57</v>
+      </c>
+      <c r="C674">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A675">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="B675">
+        <v>6.65</v>
+      </c>
+      <c r="C675">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A676">
+        <v>18.72</v>
+      </c>
+      <c r="B676">
+        <v>6.41</v>
+      </c>
+      <c r="C676">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A677">
+        <v>18.77</v>
+      </c>
+      <c r="B677">
+        <v>6.46</v>
+      </c>
+      <c r="C677">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A678">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="B678">
+        <v>6.56</v>
+      </c>
+      <c r="C678">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A679">
+        <v>18.79</v>
+      </c>
+      <c r="B679">
+        <v>6.41</v>
+      </c>
+      <c r="C679">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A680">
+        <v>18.73</v>
+      </c>
+      <c r="B680">
+        <v>6.49</v>
+      </c>
+      <c r="C680">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A681">
+        <v>18.5</v>
+      </c>
+      <c r="B681">
+        <v>6.65</v>
+      </c>
+      <c r="C681">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A682">
+        <v>18.77</v>
+      </c>
+      <c r="B682">
+        <v>6.47</v>
+      </c>
+      <c r="C682">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A683">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="B683">
+        <v>6.4</v>
+      </c>
+      <c r="C683">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A684">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="B684">
+        <v>6.41</v>
+      </c>
+      <c r="C684">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A685">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="B685">
+        <v>6.5</v>
+      </c>
+      <c r="C685">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A686">
+        <v>18.7</v>
+      </c>
+      <c r="B686">
+        <v>6.55</v>
+      </c>
+      <c r="C686">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A687">
+        <v>18.72</v>
+      </c>
+      <c r="B687">
+        <v>6.72</v>
+      </c>
+      <c r="C687">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A688">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="B688">
+        <v>6.33</v>
+      </c>
+      <c r="C688">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A689">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="B689">
+        <v>6.5</v>
+      </c>
+      <c r="C689">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A690">
+        <v>18.71</v>
+      </c>
+      <c r="B690">
+        <v>6.49</v>
+      </c>
+      <c r="C690">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A691">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="B691">
+        <v>6.37</v>
+      </c>
+      <c r="C691">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A692">
+        <v>18.66</v>
+      </c>
+      <c r="B692">
+        <v>6.37</v>
+      </c>
+      <c r="C692">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A693">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="B693">
+        <v>6.38</v>
+      </c>
+      <c r="C693">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A694">
+        <v>18.68</v>
+      </c>
+      <c r="B694">
+        <v>6.53</v>
+      </c>
+      <c r="C694">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A695">
+        <v>18.62</v>
+      </c>
+      <c r="B695">
+        <v>6.5</v>
+      </c>
+      <c r="C695">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A696">
+        <v>18.73</v>
+      </c>
+      <c r="B696">
+        <v>6.61</v>
+      </c>
+      <c r="C696">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A697">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="B697">
+        <v>6.52</v>
+      </c>
+      <c r="C697">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A698">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="B698">
+        <v>6.48</v>
+      </c>
+      <c r="C698">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A699">
+        <v>18.66</v>
+      </c>
+      <c r="B699">
+        <v>6.35</v>
+      </c>
+      <c r="C699">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A700">
+        <v>18.8</v>
+      </c>
+      <c r="B700">
+        <v>6.61</v>
+      </c>
+      <c r="C700">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A701">
+        <v>18.73</v>
+      </c>
+      <c r="B701">
+        <v>6.41</v>
+      </c>
+      <c r="C701">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A702">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="B702">
+        <v>6.52</v>
+      </c>
+      <c r="C702">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A703">
+        <v>18.68</v>
+      </c>
+      <c r="B703">
+        <v>6.43</v>
+      </c>
+      <c r="C703">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A704">
+        <v>18.86</v>
+      </c>
+      <c r="B704">
+        <v>6.45</v>
+      </c>
+      <c r="C704">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A705">
+        <v>18.7</v>
+      </c>
+      <c r="B705">
+        <v>6.33</v>
+      </c>
+      <c r="C705">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A706">
+        <v>18.75</v>
+      </c>
+      <c r="B706">
+        <v>6.44</v>
+      </c>
+      <c r="C706">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A707">
+        <v>18.79</v>
+      </c>
+      <c r="B707">
+        <v>6.44</v>
+      </c>
+      <c r="C707">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A708">
+        <v>18.72</v>
+      </c>
+      <c r="B708">
+        <v>6.54</v>
+      </c>
+      <c r="C708">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A709">
+        <v>18.78</v>
+      </c>
+      <c r="B709">
+        <v>6.52</v>
+      </c>
+      <c r="C709">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A710">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="B710">
+        <v>6.43</v>
+      </c>
+      <c r="C710">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A711">
+        <v>18.63</v>
+      </c>
+      <c r="B711">
+        <v>6.46</v>
+      </c>
+      <c r="C711">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A712">
+        <v>18.71</v>
+      </c>
+      <c r="B712">
+        <v>6.4</v>
+      </c>
+      <c r="C712">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A713">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="B713">
+        <v>6.59</v>
+      </c>
+      <c r="C713">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A714">
+        <v>18.79</v>
+      </c>
+      <c r="B714">
+        <v>6.53</v>
+      </c>
+      <c r="C714">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A715">
+        <v>18.66</v>
+      </c>
+      <c r="B715">
+        <v>6.41</v>
+      </c>
+      <c r="C715">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A716">
+        <v>18.68</v>
+      </c>
+      <c r="B716">
+        <v>6.38</v>
+      </c>
+      <c r="C716">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A717">
+        <v>18.73</v>
+      </c>
+      <c r="B717">
+        <v>6.49</v>
+      </c>
+      <c r="C717">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A718">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="B718">
+        <v>6.54</v>
+      </c>
+      <c r="C718">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A719">
+        <v>18.8</v>
+      </c>
+      <c r="B719">
+        <v>6.48</v>
+      </c>
+      <c r="C719">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A720">
+        <v>18.64</v>
+      </c>
+      <c r="B720">
+        <v>6.43</v>
+      </c>
+      <c r="C720">
+        <v>12.19</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A721">
+        <v>18.72</v>
+      </c>
+      <c r="B721">
+        <v>6.45</v>
+      </c>
+      <c r="C721">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A722">
+        <v>18.7</v>
+      </c>
+      <c r="B722">
+        <v>6.4</v>
+      </c>
+      <c r="C722">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A723">
+        <v>18.66</v>
+      </c>
+      <c r="B723">
+        <v>6.46</v>
+      </c>
+      <c r="C723">
+        <v>12.19</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A724">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="B724">
+        <v>6.67</v>
+      </c>
+      <c r="C724">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A725">
+        <v>18.68</v>
+      </c>
+      <c r="B725">
+        <v>6.38</v>
+      </c>
+      <c r="C725">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A726">
+        <v>18.7</v>
+      </c>
+      <c r="B726">
+        <v>6.56</v>
+      </c>
+      <c r="C726">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A727">
+        <v>18.7</v>
+      </c>
+      <c r="B727">
+        <v>6.44</v>
+      </c>
+      <c r="C727">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A728">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="B728">
+        <v>6.62</v>
+      </c>
+      <c r="C728">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A729">
+        <v>18.62</v>
+      </c>
+      <c r="B729">
+        <v>6.37</v>
+      </c>
+      <c r="C729">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A730">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="B730">
+        <v>6.38</v>
+      </c>
+      <c r="C730">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A731">
+        <v>18.71</v>
+      </c>
+      <c r="B731">
+        <v>6.49</v>
+      </c>
+      <c r="C731">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A732">
+        <v>18.7</v>
+      </c>
+      <c r="B732">
+        <v>6.35</v>
+      </c>
+      <c r="C732">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A733">
+        <v>18.75</v>
+      </c>
+      <c r="B733">
+        <v>6.53</v>
+      </c>
+      <c r="C733">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A734">
+        <v>18.71</v>
+      </c>
+      <c r="B734">
+        <v>6.54</v>
+      </c>
+      <c r="C734">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A735">
+        <v>18.78</v>
+      </c>
+      <c r="B735">
+        <v>6.44</v>
+      </c>
+      <c r="C735">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A736">
+        <v>18.78</v>
+      </c>
+      <c r="B736">
+        <v>6.56</v>
+      </c>
+      <c r="C736">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A737">
+        <v>18.78</v>
+      </c>
+      <c r="B737">
+        <v>6.34</v>
+      </c>
+      <c r="C737">
+        <v>12.43</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A738">
+        <v>18.72</v>
+      </c>
+      <c r="B738">
+        <v>6.63</v>
+      </c>
+      <c r="C738">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A739">
+        <v>18.63</v>
+      </c>
+      <c r="B739">
+        <v>6.48</v>
+      </c>
+      <c r="C739">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A740">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="B740">
+        <v>6.43</v>
+      </c>
+      <c r="C740">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A741">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="B741">
+        <v>6.49</v>
+      </c>
+      <c r="C741">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A742">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="B742">
+        <v>6.68</v>
+      </c>
+      <c r="C742">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A743">
+        <v>18.66</v>
+      </c>
+      <c r="B743">
+        <v>6.33</v>
+      </c>
+      <c r="C743">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A744">
+        <v>18.75</v>
+      </c>
+      <c r="B744">
+        <v>6.51</v>
+      </c>
+      <c r="C744">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A745">
+        <v>18.75</v>
+      </c>
+      <c r="B745">
+        <v>6.59</v>
+      </c>
+      <c r="C745">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A746">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="B746">
+        <v>6.56</v>
+      </c>
+      <c r="C746">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A747">
+        <v>18.64</v>
+      </c>
+      <c r="B747">
+        <v>6.42</v>
+      </c>
+      <c r="C747">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A748">
+        <v>18.7</v>
+      </c>
+      <c r="B748">
+        <v>6.48</v>
+      </c>
+      <c r="C748">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A749">
+        <v>18.75</v>
+      </c>
+      <c r="B749">
+        <v>6.55</v>
+      </c>
+      <c r="C749">
+        <v>12.19</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A750">
+        <v>18.75</v>
+      </c>
+      <c r="B750">
+        <v>6.6</v>
+      </c>
+      <c r="C750">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A751">
+        <v>18.61</v>
+      </c>
+      <c r="B751">
+        <v>6.52</v>
+      </c>
+      <c r="C751">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A752">
+        <v>18.73</v>
+      </c>
+      <c r="B752">
+        <v>6.58</v>
+      </c>
+      <c r="C752">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A753">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="B753">
+        <v>6.67</v>
+      </c>
+      <c r="C753">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A754">
+        <v>18.66</v>
+      </c>
+      <c r="B754">
+        <v>6.29</v>
+      </c>
+      <c r="C754">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A755">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="B755">
+        <v>6.56</v>
+      </c>
+      <c r="C755">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A756">
+        <v>18.93</v>
+      </c>
+      <c r="B756">
+        <v>6.57</v>
+      </c>
+      <c r="C756">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A757">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B757">
+        <v>6.47</v>
+      </c>
+      <c r="C757">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A758">
+        <v>18.7</v>
+      </c>
+      <c r="B758">
+        <v>6.59</v>
+      </c>
+      <c r="C758">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A759">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="B759">
+        <v>6.45</v>
+      </c>
+      <c r="C759">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A760">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="B760">
+        <v>6.43</v>
+      </c>
+      <c r="C760">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A761">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="B761">
+        <v>6.55</v>
+      </c>
+      <c r="C761">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A762">
+        <v>18.82</v>
+      </c>
+      <c r="B762">
+        <v>6.55</v>
+      </c>
+      <c r="C762">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A763">
+        <v>18.48</v>
+      </c>
+      <c r="B763">
+        <v>6.44</v>
+      </c>
+      <c r="C763">
+        <v>12.03</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A764">
+        <v>18.72</v>
+      </c>
+      <c r="B764">
+        <v>6.46</v>
+      </c>
+      <c r="C764">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A765">
+        <v>18.72</v>
+      </c>
+      <c r="B765">
+        <v>6.35</v>
+      </c>
+      <c r="C765">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A766">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="B766">
+        <v>6.51</v>
+      </c>
+      <c r="C766">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A767">
+        <v>18.8</v>
+      </c>
+      <c r="B767">
+        <v>6.46</v>
+      </c>
+      <c r="C767">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A768">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="B768">
+        <v>6.57</v>
+      </c>
+      <c r="C768">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A769">
+        <v>18.72</v>
+      </c>
+      <c r="B769">
+        <v>6.62</v>
+      </c>
+      <c r="C769">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A770">
+        <v>18.73</v>
+      </c>
+      <c r="B770">
+        <v>6.56</v>
+      </c>
+      <c r="C770">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A771">
+        <v>18.79</v>
+      </c>
+      <c r="B771">
+        <v>6.45</v>
+      </c>
+      <c r="C771">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A772">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="B772">
+        <v>6.31</v>
+      </c>
+      <c r="C772">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A773">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="B773">
+        <v>6.51</v>
+      </c>
+      <c r="C773">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A774">
+        <v>18.75</v>
+      </c>
+      <c r="B774">
+        <v>6.51</v>
+      </c>
+      <c r="C774">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A775">
+        <v>18.77</v>
+      </c>
+      <c r="B775">
+        <v>6.5</v>
+      </c>
+      <c r="C775">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A776">
+        <v>18.79</v>
+      </c>
+      <c r="B776">
+        <v>6.38</v>
+      </c>
+      <c r="C776">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A777">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="B777">
+        <v>6.54</v>
+      </c>
+      <c r="C777">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A778">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="B778">
+        <v>6.47</v>
+      </c>
+      <c r="C778">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A779">
+        <v>18.75</v>
+      </c>
+      <c r="B779">
+        <v>6.47</v>
+      </c>
+      <c r="C779">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A780">
+        <v>18.73</v>
+      </c>
+      <c r="B780">
+        <v>6.38</v>
+      </c>
+      <c r="C780">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A781">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="B781">
+        <v>6.44</v>
+      </c>
+      <c r="C781">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A782">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="B782">
+        <v>6.42</v>
+      </c>
+      <c r="C782">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A783">
+        <v>18.68</v>
+      </c>
+      <c r="B783">
+        <v>6.65</v>
+      </c>
+      <c r="C783">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A784">
+        <v>18.71</v>
+      </c>
+      <c r="B784">
+        <v>6.48</v>
+      </c>
+      <c r="C784">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A785">
+        <v>18.73</v>
+      </c>
+      <c r="B785">
+        <v>6.48</v>
+      </c>
+      <c r="C785">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A786">
+        <v>18.78</v>
+      </c>
+      <c r="B786">
+        <v>6.4</v>
+      </c>
+      <c r="C786">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A787">
+        <v>18.75</v>
+      </c>
+      <c r="B787">
+        <v>6.52</v>
+      </c>
+      <c r="C787">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A788">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="B788">
+        <v>6.51</v>
+      </c>
+      <c r="C788">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A789">
+        <v>18.79</v>
+      </c>
+      <c r="B789">
+        <v>6.43</v>
+      </c>
+      <c r="C789">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A790">
+        <v>18.89</v>
+      </c>
+      <c r="B790">
+        <v>6.48</v>
+      </c>
+      <c r="C790">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A791">
+        <v>18.87</v>
+      </c>
+      <c r="B791">
+        <v>6.41</v>
+      </c>
+      <c r="C791">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A792">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="B792">
+        <v>6.53</v>
+      </c>
+      <c r="C792">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A793">
+        <v>18.75</v>
+      </c>
+      <c r="B793">
+        <v>6.52</v>
+      </c>
+      <c r="C793">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A794">
+        <v>18.75</v>
+      </c>
+      <c r="B794">
+        <v>6.54</v>
+      </c>
+      <c r="C794">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A795">
+        <v>18.89</v>
+      </c>
+      <c r="B795">
+        <v>6.56</v>
+      </c>
+      <c r="C795">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A796">
+        <v>18.78</v>
+      </c>
+      <c r="B796">
+        <v>6.5</v>
+      </c>
+      <c r="C796">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A797">
+        <v>18.68</v>
+      </c>
+      <c r="B797">
+        <v>6.52</v>
+      </c>
+      <c r="C797">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A798">
+        <v>18.63</v>
+      </c>
+      <c r="B798">
+        <v>6.43</v>
+      </c>
+      <c r="C798">
+        <v>12.19</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A799">
+        <v>18.75</v>
+      </c>
+      <c r="B799">
+        <v>6.46</v>
+      </c>
+      <c r="C799">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A800">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="B800">
+        <v>6.49</v>
+      </c>
+      <c r="C800">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A801">
+        <v>18.75</v>
+      </c>
+      <c r="B801">
+        <v>6.44</v>
+      </c>
+      <c r="C801">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A802">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="B802">
+        <v>6.59</v>
+      </c>
+      <c r="C802">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A803">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="B803">
+        <v>6.46</v>
+      </c>
+      <c r="C803">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A804">
+        <v>18.7</v>
+      </c>
+      <c r="B804">
+        <v>6.46</v>
+      </c>
+      <c r="C804">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A805">
+        <v>18.77</v>
+      </c>
+      <c r="B805">
+        <v>6.51</v>
+      </c>
+      <c r="C805">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A806">
+        <v>18.7</v>
+      </c>
+      <c r="B806">
+        <v>6.58</v>
+      </c>
+      <c r="C806">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A807">
+        <v>18.78</v>
+      </c>
+      <c r="B807">
+        <v>6.56</v>
+      </c>
+      <c r="C807">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A808">
+        <v>18.82</v>
+      </c>
+      <c r="B808">
+        <v>6.52</v>
+      </c>
+      <c r="C808">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A809">
+        <v>18.84</v>
+      </c>
+      <c r="B809">
+        <v>6.41</v>
+      </c>
+      <c r="C809">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A810">
+        <v>18.62</v>
+      </c>
+      <c r="B810">
+        <v>6.53</v>
+      </c>
+      <c r="C810">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A811">
+        <v>18.82</v>
+      </c>
+      <c r="B811">
+        <v>6.47</v>
+      </c>
+      <c r="C811">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A812">
+        <v>18.72</v>
+      </c>
+      <c r="B812">
+        <v>6.3</v>
+      </c>
+      <c r="C812">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A813">
+        <v>18.68</v>
+      </c>
+      <c r="B813">
+        <v>6.51</v>
+      </c>
+      <c r="C813">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A814">
+        <v>18.82</v>
+      </c>
+      <c r="B814">
+        <v>6.42</v>
+      </c>
+      <c r="C814">
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A815">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="B815">
+        <v>6.57</v>
+      </c>
+      <c r="C815">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A816">
+        <v>18.8</v>
+      </c>
+      <c r="B816">
+        <v>6.44</v>
+      </c>
+      <c r="C816">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A817">
+        <v>18.77</v>
+      </c>
+      <c r="B817">
+        <v>6.5</v>
+      </c>
+      <c r="C817">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A818">
+        <v>18.97</v>
+      </c>
+      <c r="B818">
+        <v>6.61</v>
+      </c>
+      <c r="C818">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A819">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="B819">
+        <v>6.43</v>
+      </c>
+      <c r="C819">
+        <v>12.46</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A820">
+        <v>18.86</v>
+      </c>
+      <c r="B820">
+        <v>6.39</v>
+      </c>
+      <c r="C820">
+        <v>12.46</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A821">
+        <v>18.73</v>
+      </c>
+      <c r="B821">
+        <v>6.6</v>
+      </c>
+      <c r="C821">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A822">
+        <v>18.82</v>
+      </c>
+      <c r="B822">
+        <v>6.46</v>
+      </c>
+      <c r="C822">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A823">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="B823">
+        <v>6.55</v>
+      </c>
+      <c r="C823">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A824">
+        <v>18.93</v>
+      </c>
+      <c r="B824">
+        <v>6.51</v>
+      </c>
+      <c r="C824">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A825">
+        <v>18.8</v>
+      </c>
+      <c r="B825">
+        <v>6.41</v>
+      </c>
+      <c r="C825">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A826">
+        <v>18.91</v>
+      </c>
+      <c r="B826">
+        <v>6.51</v>
+      </c>
+      <c r="C826">
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A827">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="B827">
+        <v>6.48</v>
+      </c>
+      <c r="C827">
+        <v>12.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/xeon.5315y.xlsx
+++ b/data/xeon.5315y.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/floh/Code/sgx-benchmark/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23119EEC-B038-6E42-BD08-EEDBE2EF6ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568D2029-A9D2-A343-ABF7-70288522CC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12140" yWindow="8320" windowWidth="27640" windowHeight="16860" activeTab="5" xr2:uid="{CC5653A7-47EC-7741-A8FE-65C1DD72C94E}"/>
   </bookViews>
@@ -55468,10 +55468,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FD8A17-FDDA-D549-97FA-F8688488C3E4}">
-  <dimension ref="A1:C827"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -64573,6 +64573,1909 @@
         <v>12.26</v>
       </c>
     </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A828">
+        <v>18.68</v>
+      </c>
+      <c r="B828">
+        <v>6.4</v>
+      </c>
+      <c r="C828">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A829">
+        <v>18.73</v>
+      </c>
+      <c r="B829">
+        <v>6.49</v>
+      </c>
+      <c r="C829">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A830">
+        <v>18.89</v>
+      </c>
+      <c r="B830">
+        <v>6.61</v>
+      </c>
+      <c r="C830">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A831">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="B831">
+        <v>6.49</v>
+      </c>
+      <c r="C831">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A832">
+        <v>18.84</v>
+      </c>
+      <c r="B832">
+        <v>6.5</v>
+      </c>
+      <c r="C832">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A833">
+        <v>18.78</v>
+      </c>
+      <c r="B833">
+        <v>6.56</v>
+      </c>
+      <c r="C833">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A834">
+        <v>18.72</v>
+      </c>
+      <c r="B834">
+        <v>6.33</v>
+      </c>
+      <c r="C834">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A835">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="B835">
+        <v>6.46</v>
+      </c>
+      <c r="C835">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A836">
+        <v>18.73</v>
+      </c>
+      <c r="B836">
+        <v>6.47</v>
+      </c>
+      <c r="C836">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A837">
+        <v>18.84</v>
+      </c>
+      <c r="B837">
+        <v>6.39</v>
+      </c>
+      <c r="C837">
+        <v>12.44</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A838">
+        <v>18.8</v>
+      </c>
+      <c r="B838">
+        <v>6.43</v>
+      </c>
+      <c r="C838">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A839">
+        <v>18.63</v>
+      </c>
+      <c r="B839">
+        <v>6.54</v>
+      </c>
+      <c r="C839">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A840">
+        <v>18.75</v>
+      </c>
+      <c r="B840">
+        <v>6.57</v>
+      </c>
+      <c r="C840">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A841">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="B841">
+        <v>6.54</v>
+      </c>
+      <c r="C841">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A842">
+        <v>18.82</v>
+      </c>
+      <c r="B842">
+        <v>6.46</v>
+      </c>
+      <c r="C842">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A843">
+        <v>18.59</v>
+      </c>
+      <c r="B843">
+        <v>6.59</v>
+      </c>
+      <c r="C843">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A844">
+        <v>18.82</v>
+      </c>
+      <c r="B844">
+        <v>6.39</v>
+      </c>
+      <c r="C844">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A845">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="B845">
+        <v>6.48</v>
+      </c>
+      <c r="C845">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A846">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="B846">
+        <v>6.43</v>
+      </c>
+      <c r="C846">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A847">
+        <v>18.77</v>
+      </c>
+      <c r="B847">
+        <v>6.55</v>
+      </c>
+      <c r="C847">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A848">
+        <v>18.73</v>
+      </c>
+      <c r="B848">
+        <v>6.58</v>
+      </c>
+      <c r="C848">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A849">
+        <v>18.75</v>
+      </c>
+      <c r="B849">
+        <v>6.49</v>
+      </c>
+      <c r="C849">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A850">
+        <v>18.72</v>
+      </c>
+      <c r="B850">
+        <v>6.47</v>
+      </c>
+      <c r="C850">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A851">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="B851">
+        <v>6.52</v>
+      </c>
+      <c r="C851">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A852">
+        <v>18.79</v>
+      </c>
+      <c r="B852">
+        <v>6.44</v>
+      </c>
+      <c r="C852">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A853">
+        <v>18.75</v>
+      </c>
+      <c r="B853">
+        <v>6.49</v>
+      </c>
+      <c r="C853">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A854">
+        <v>18.84</v>
+      </c>
+      <c r="B854">
+        <v>6.5</v>
+      </c>
+      <c r="C854">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A855">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B855">
+        <v>6.43</v>
+      </c>
+      <c r="C855">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A856">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="B856">
+        <v>6.59</v>
+      </c>
+      <c r="C856">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A857">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="B857">
+        <v>6.33</v>
+      </c>
+      <c r="C857">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A858">
+        <v>18.8</v>
+      </c>
+      <c r="B858">
+        <v>6.49</v>
+      </c>
+      <c r="C858">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A859">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="B859">
+        <v>6.52</v>
+      </c>
+      <c r="C859">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A860">
+        <v>18.66</v>
+      </c>
+      <c r="B860">
+        <v>6.49</v>
+      </c>
+      <c r="C860">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A861">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="B861">
+        <v>6.49</v>
+      </c>
+      <c r="C861">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A862">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="B862">
+        <v>6.54</v>
+      </c>
+      <c r="C862">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A863">
+        <v>18.87</v>
+      </c>
+      <c r="B863">
+        <v>6.55</v>
+      </c>
+      <c r="C863">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A864">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="B864">
+        <v>6.37</v>
+      </c>
+      <c r="C864">
+        <v>12.43</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A865">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="B865">
+        <v>6.58</v>
+      </c>
+      <c r="C865">
+        <v>12.47</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A866">
+        <v>18.79</v>
+      </c>
+      <c r="B866">
+        <v>6.55</v>
+      </c>
+      <c r="C866">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A867">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="B867">
+        <v>6.47</v>
+      </c>
+      <c r="C867">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A868">
+        <v>18.79</v>
+      </c>
+      <c r="B868">
+        <v>6.38</v>
+      </c>
+      <c r="C868">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A869">
+        <v>18.77</v>
+      </c>
+      <c r="B869">
+        <v>6.43</v>
+      </c>
+      <c r="C869">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A870">
+        <v>18.8</v>
+      </c>
+      <c r="B870">
+        <v>6.6</v>
+      </c>
+      <c r="C870">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A871">
+        <v>18.96</v>
+      </c>
+      <c r="B871">
+        <v>6.5</v>
+      </c>
+      <c r="C871">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A872">
+        <v>18.79</v>
+      </c>
+      <c r="B872">
+        <v>6.43</v>
+      </c>
+      <c r="C872">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A873">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="B873">
+        <v>6.45</v>
+      </c>
+      <c r="C873">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A874">
+        <v>18.79</v>
+      </c>
+      <c r="B874">
+        <v>6.49</v>
+      </c>
+      <c r="C874">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A875">
+        <v>18.77</v>
+      </c>
+      <c r="B875">
+        <v>6.47</v>
+      </c>
+      <c r="C875">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A876">
+        <v>18.63</v>
+      </c>
+      <c r="B876">
+        <v>6.49</v>
+      </c>
+      <c r="C876">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A877">
+        <v>18.93</v>
+      </c>
+      <c r="B877">
+        <v>6.31</v>
+      </c>
+      <c r="C877">
+        <v>12.61</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A878">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="B878">
+        <v>6.58</v>
+      </c>
+      <c r="C878">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A879">
+        <v>18.95</v>
+      </c>
+      <c r="B879">
+        <v>6.61</v>
+      </c>
+      <c r="C879">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A880">
+        <v>18.86</v>
+      </c>
+      <c r="B880">
+        <v>6.64</v>
+      </c>
+      <c r="C880">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A881">
+        <v>18.79</v>
+      </c>
+      <c r="B881">
+        <v>6.45</v>
+      </c>
+      <c r="C881">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A882">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="B882">
+        <v>6.53</v>
+      </c>
+      <c r="C882">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A883">
+        <v>18.84</v>
+      </c>
+      <c r="B883">
+        <v>6.48</v>
+      </c>
+      <c r="C883">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A884">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="B884">
+        <v>6.54</v>
+      </c>
+      <c r="C884">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A885">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="B885">
+        <v>6.52</v>
+      </c>
+      <c r="C885">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A886">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="B886">
+        <v>6.73</v>
+      </c>
+      <c r="C886">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A887">
+        <v>18.75</v>
+      </c>
+      <c r="B887">
+        <v>6.49</v>
+      </c>
+      <c r="C887">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A888">
+        <v>18.79</v>
+      </c>
+      <c r="B888">
+        <v>6.29</v>
+      </c>
+      <c r="C888">
+        <v>12.49</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A889">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="B889">
+        <v>6.7</v>
+      </c>
+      <c r="C889">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A890">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="B890">
+        <v>6.46</v>
+      </c>
+      <c r="C890">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A891">
+        <v>18.8</v>
+      </c>
+      <c r="B891">
+        <v>6.55</v>
+      </c>
+      <c r="C891">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A892">
+        <v>18.62</v>
+      </c>
+      <c r="B892">
+        <v>6.45</v>
+      </c>
+      <c r="C892">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A893">
+        <v>18.72</v>
+      </c>
+      <c r="B893">
+        <v>6.46</v>
+      </c>
+      <c r="C893">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A894">
+        <v>18.93</v>
+      </c>
+      <c r="B894">
+        <v>6.52</v>
+      </c>
+      <c r="C894">
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A895">
+        <v>18.84</v>
+      </c>
+      <c r="B895">
+        <v>6.61</v>
+      </c>
+      <c r="C895">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A896">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="B896">
+        <v>6.38</v>
+      </c>
+      <c r="C896">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A897">
+        <v>18.77</v>
+      </c>
+      <c r="B897">
+        <v>6.61</v>
+      </c>
+      <c r="C897">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A898">
+        <v>18.75</v>
+      </c>
+      <c r="B898">
+        <v>6.61</v>
+      </c>
+      <c r="C898">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A899">
+        <v>18.75</v>
+      </c>
+      <c r="B899">
+        <v>6.55</v>
+      </c>
+      <c r="C899">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A900">
+        <v>18.77</v>
+      </c>
+      <c r="B900">
+        <v>6.65</v>
+      </c>
+      <c r="C900">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A901">
+        <v>18.88</v>
+      </c>
+      <c r="B901">
+        <v>6.55</v>
+      </c>
+      <c r="C901">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A902">
+        <v>18.75</v>
+      </c>
+      <c r="B902">
+        <v>6.38</v>
+      </c>
+      <c r="C902">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A903">
+        <v>18.82</v>
+      </c>
+      <c r="B903">
+        <v>6.48</v>
+      </c>
+      <c r="C903">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A904">
+        <v>18.84</v>
+      </c>
+      <c r="B904">
+        <v>6.52</v>
+      </c>
+      <c r="C904">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A905">
+        <v>18.78</v>
+      </c>
+      <c r="B905">
+        <v>6.4</v>
+      </c>
+      <c r="C905">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A906">
+        <v>18.79</v>
+      </c>
+      <c r="B906">
+        <v>6.43</v>
+      </c>
+      <c r="C906">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A907">
+        <v>18.77</v>
+      </c>
+      <c r="B907">
+        <v>6.57</v>
+      </c>
+      <c r="C907">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A908">
+        <v>18.88</v>
+      </c>
+      <c r="B908">
+        <v>6.59</v>
+      </c>
+      <c r="C908">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A909">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="B909">
+        <v>6.5</v>
+      </c>
+      <c r="C909">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A910">
+        <v>18.84</v>
+      </c>
+      <c r="B910">
+        <v>6.55</v>
+      </c>
+      <c r="C910">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A911">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="B911">
+        <v>6.4</v>
+      </c>
+      <c r="C911">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A912">
+        <v>18.78</v>
+      </c>
+      <c r="B912">
+        <v>6.33</v>
+      </c>
+      <c r="C912">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A913">
+        <v>18.96</v>
+      </c>
+      <c r="B913">
+        <v>6.54</v>
+      </c>
+      <c r="C913">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A914">
+        <v>18.87</v>
+      </c>
+      <c r="B914">
+        <v>6.44</v>
+      </c>
+      <c r="C914">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A915">
+        <v>18.79</v>
+      </c>
+      <c r="B915">
+        <v>6.44</v>
+      </c>
+      <c r="C915">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A916">
+        <v>18.84</v>
+      </c>
+      <c r="B916">
+        <v>6.57</v>
+      </c>
+      <c r="C916">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A917">
+        <v>18.96</v>
+      </c>
+      <c r="B917">
+        <v>6.6</v>
+      </c>
+      <c r="C917">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A918">
+        <v>19.03</v>
+      </c>
+      <c r="B918">
+        <v>6.5</v>
+      </c>
+      <c r="C918">
+        <v>12.52</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A919">
+        <v>18.78</v>
+      </c>
+      <c r="B919">
+        <v>6.58</v>
+      </c>
+      <c r="C919">
+        <v>12.19</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A920">
+        <v>18.89</v>
+      </c>
+      <c r="B920">
+        <v>6.45</v>
+      </c>
+      <c r="C920">
+        <v>12.43</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A921">
+        <v>18.64</v>
+      </c>
+      <c r="B921">
+        <v>6.49</v>
+      </c>
+      <c r="C921">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A922">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="B922">
+        <v>6.55</v>
+      </c>
+      <c r="C922">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A923">
+        <v>18.73</v>
+      </c>
+      <c r="B923">
+        <v>6.46</v>
+      </c>
+      <c r="C923">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A924">
+        <v>18.77</v>
+      </c>
+      <c r="B924">
+        <v>6.51</v>
+      </c>
+      <c r="C924">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A925">
+        <v>18.93</v>
+      </c>
+      <c r="B925">
+        <v>6.45</v>
+      </c>
+      <c r="C925">
+        <v>12.48</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A926">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="B926">
+        <v>6.59</v>
+      </c>
+      <c r="C926">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A927">
+        <v>18.8</v>
+      </c>
+      <c r="B927">
+        <v>6.46</v>
+      </c>
+      <c r="C927">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A928">
+        <v>18.79</v>
+      </c>
+      <c r="B928">
+        <v>6.52</v>
+      </c>
+      <c r="C928">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A929">
+        <v>18.77</v>
+      </c>
+      <c r="B929">
+        <v>6.5</v>
+      </c>
+      <c r="C929">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A930">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="B930">
+        <v>6.42</v>
+      </c>
+      <c r="C930">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A931">
+        <v>18.8</v>
+      </c>
+      <c r="B931">
+        <v>6.59</v>
+      </c>
+      <c r="C931">
+        <v>12.19</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A932">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="B932">
+        <v>6.5</v>
+      </c>
+      <c r="C932">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A933">
+        <v>18.82</v>
+      </c>
+      <c r="B933">
+        <v>6.52</v>
+      </c>
+      <c r="C933">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A934">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="B934">
+        <v>6.48</v>
+      </c>
+      <c r="C934">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A935">
+        <v>18.68</v>
+      </c>
+      <c r="B935">
+        <v>6.48</v>
+      </c>
+      <c r="C935">
+        <v>12.19</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A936">
+        <v>18.78</v>
+      </c>
+      <c r="B936">
+        <v>6.59</v>
+      </c>
+      <c r="C936">
+        <v>12.19</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A937">
+        <v>18.82</v>
+      </c>
+      <c r="B937">
+        <v>6.35</v>
+      </c>
+      <c r="C937">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A938">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="B938">
+        <v>6.65</v>
+      </c>
+      <c r="C938">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A939">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="B939">
+        <v>6.6</v>
+      </c>
+      <c r="C939">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A940">
+        <v>18.95</v>
+      </c>
+      <c r="B940">
+        <v>6.52</v>
+      </c>
+      <c r="C940">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A941">
+        <v>18.77</v>
+      </c>
+      <c r="B941">
+        <v>6.44</v>
+      </c>
+      <c r="C941">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A942">
+        <v>18.8</v>
+      </c>
+      <c r="B942">
+        <v>6.66</v>
+      </c>
+      <c r="C942">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A943">
+        <v>18.78</v>
+      </c>
+      <c r="B943">
+        <v>6.66</v>
+      </c>
+      <c r="C943">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A944">
+        <v>18.77</v>
+      </c>
+      <c r="B944">
+        <v>6.5</v>
+      </c>
+      <c r="C944">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A945">
+        <v>18.8</v>
+      </c>
+      <c r="B945">
+        <v>6.52</v>
+      </c>
+      <c r="C945">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A946">
+        <v>18.8</v>
+      </c>
+      <c r="B946">
+        <v>6.48</v>
+      </c>
+      <c r="C946">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A947">
+        <v>18.78</v>
+      </c>
+      <c r="B947">
+        <v>6.5</v>
+      </c>
+      <c r="C947">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A948">
+        <v>18.66</v>
+      </c>
+      <c r="B948">
+        <v>6.45</v>
+      </c>
+      <c r="C948">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A949">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="B949">
+        <v>6.51</v>
+      </c>
+      <c r="C949">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A950">
+        <v>18.8</v>
+      </c>
+      <c r="B950">
+        <v>6.55</v>
+      </c>
+      <c r="C950">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A951">
+        <v>18.82</v>
+      </c>
+      <c r="B951">
+        <v>6.41</v>
+      </c>
+      <c r="C951">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A952">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="B952">
+        <v>6.52</v>
+      </c>
+      <c r="C952">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A953">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="B953">
+        <v>6.41</v>
+      </c>
+      <c r="C953">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A954">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="B954">
+        <v>6.5</v>
+      </c>
+      <c r="C954">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A955">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="B955">
+        <v>6.48</v>
+      </c>
+      <c r="C955">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A956">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="B956">
+        <v>6.49</v>
+      </c>
+      <c r="C956">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A957">
+        <v>18.8</v>
+      </c>
+      <c r="B957">
+        <v>6.49</v>
+      </c>
+      <c r="C957">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A958">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="B958">
+        <v>6.49</v>
+      </c>
+      <c r="C958">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A959">
+        <v>18.84</v>
+      </c>
+      <c r="B959">
+        <v>6.45</v>
+      </c>
+      <c r="C959">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A960">
+        <v>18.68</v>
+      </c>
+      <c r="B960">
+        <v>6.41</v>
+      </c>
+      <c r="C960">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A961">
+        <v>18.87</v>
+      </c>
+      <c r="B961">
+        <v>6.59</v>
+      </c>
+      <c r="C961">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A962">
+        <v>18.89</v>
+      </c>
+      <c r="B962">
+        <v>6.54</v>
+      </c>
+      <c r="C962">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A963">
+        <v>18.96</v>
+      </c>
+      <c r="B963">
+        <v>6.44</v>
+      </c>
+      <c r="C963">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A964">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="B964">
+        <v>6.39</v>
+      </c>
+      <c r="C964">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A965">
+        <v>18.8</v>
+      </c>
+      <c r="B965">
+        <v>6.6</v>
+      </c>
+      <c r="C965">
+        <v>12.19</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A966">
+        <v>18.82</v>
+      </c>
+      <c r="B966">
+        <v>6.47</v>
+      </c>
+      <c r="C966">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A967">
+        <v>18.77</v>
+      </c>
+      <c r="B967">
+        <v>6.59</v>
+      </c>
+      <c r="C967">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A968">
+        <v>18.88</v>
+      </c>
+      <c r="B968">
+        <v>6.53</v>
+      </c>
+      <c r="C968">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A969">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="B969">
+        <v>6.55</v>
+      </c>
+      <c r="C969">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A970">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="B970">
+        <v>6.53</v>
+      </c>
+      <c r="C970">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A971">
+        <v>19.11</v>
+      </c>
+      <c r="B971">
+        <v>6.46</v>
+      </c>
+      <c r="C971">
+        <v>12.64</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A972">
+        <v>18.8</v>
+      </c>
+      <c r="B972">
+        <v>6.45</v>
+      </c>
+      <c r="C972">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A973">
+        <v>18.95</v>
+      </c>
+      <c r="B973">
+        <v>6.56</v>
+      </c>
+      <c r="C973">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A974">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="B974">
+        <v>6.47</v>
+      </c>
+      <c r="C974">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A975">
+        <v>18.82</v>
+      </c>
+      <c r="B975">
+        <v>6.69</v>
+      </c>
+      <c r="C975">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A976">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="B976">
+        <v>6.51</v>
+      </c>
+      <c r="C976">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A977">
+        <v>18.79</v>
+      </c>
+      <c r="B977">
+        <v>6.39</v>
+      </c>
+      <c r="C977">
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A978">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="B978">
+        <v>6.57</v>
+      </c>
+      <c r="C978">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A979">
+        <v>18.72</v>
+      </c>
+      <c r="B979">
+        <v>6.69</v>
+      </c>
+      <c r="C979">
+        <v>12.03</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A980">
+        <v>18.84</v>
+      </c>
+      <c r="B980">
+        <v>6.37</v>
+      </c>
+      <c r="C980">
+        <v>12.46</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A981">
+        <v>18.87</v>
+      </c>
+      <c r="B981">
+        <v>6.44</v>
+      </c>
+      <c r="C981">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A982">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="B982">
+        <v>6.68</v>
+      </c>
+      <c r="C982">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A983">
+        <v>18.84</v>
+      </c>
+      <c r="B983">
+        <v>6.78</v>
+      </c>
+      <c r="C983">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A984">
+        <v>18.79</v>
+      </c>
+      <c r="B984">
+        <v>6.55</v>
+      </c>
+      <c r="C984">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A985">
+        <v>18.91</v>
+      </c>
+      <c r="B985">
+        <v>6.59</v>
+      </c>
+      <c r="C985">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A986">
+        <v>18.88</v>
+      </c>
+      <c r="B986">
+        <v>6.43</v>
+      </c>
+      <c r="C986">
+        <v>12.44</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A987">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="B987">
+        <v>6.62</v>
+      </c>
+      <c r="C987">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="988" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A988">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="B988">
+        <v>6.4</v>
+      </c>
+      <c r="C988">
+        <v>12.59</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A989">
+        <v>18.87</v>
+      </c>
+      <c r="B989">
+        <v>6.3</v>
+      </c>
+      <c r="C989">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="990" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A990">
+        <v>18.8</v>
+      </c>
+      <c r="B990">
+        <v>6.58</v>
+      </c>
+      <c r="C990">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A991">
+        <v>18.84</v>
+      </c>
+      <c r="B991">
+        <v>6.42</v>
+      </c>
+      <c r="C991">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="992" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A992">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="B992">
+        <v>6.63</v>
+      </c>
+      <c r="C992">
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="993" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A993">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="B993">
+        <v>6.53</v>
+      </c>
+      <c r="C993">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="994" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A994">
+        <v>19.04</v>
+      </c>
+      <c r="B994">
+        <v>6.48</v>
+      </c>
+      <c r="C994">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="995" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A995">
+        <v>18.77</v>
+      </c>
+      <c r="B995">
+        <v>6.49</v>
+      </c>
+      <c r="C995">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="996" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A996">
+        <v>18.84</v>
+      </c>
+      <c r="B996">
+        <v>6.41</v>
+      </c>
+      <c r="C996">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="997" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A997">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="B997">
+        <v>6.51</v>
+      </c>
+      <c r="C997">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="998" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A998">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="B998">
+        <v>6.54</v>
+      </c>
+      <c r="C998">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="999" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A999">
+        <v>18.88</v>
+      </c>
+      <c r="B999">
+        <v>6.46</v>
+      </c>
+      <c r="C999">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1000">
+        <v>18.97</v>
+      </c>
+      <c r="B1000">
+        <v>6.66</v>
+      </c>
+      <c r="C1000">
+        <v>12.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
